--- a/一般銀行數位帳戶開戶數.xlsx
+++ b/一般銀行數位帳戶開戶數.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="8424" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="8424"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>109Q1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,22 +77,6 @@
   </si>
   <si>
     <t>第三類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109Q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109Q3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,9 +135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -639,232 +619,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1214719</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1346549</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1588301</v>
-      </c>
-      <c r="E3" s="1">
-        <f>SUM(B3:D3)</f>
-        <v>4149569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1383845</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1660628</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1876767</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E11" si="0">SUM(B4:D4)</f>
-        <v>4921240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1561181</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1962873</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2228453</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>5752507</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1708078</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2257207</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2497758</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>6463043</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1882243</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2614213</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2749367</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>7245823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2059609</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2909726</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3130323</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>8099658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2249215</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3128503</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3585400</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>8963118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2421815</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3325510</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3922639</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>9669964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2573288</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3573881</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4408431</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>10555600</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>